--- a/ScrumBoard.xlsx
+++ b/ScrumBoard.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>backlog</t>
   </si>
@@ -452,7 +452,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,7 +461,7 @@
     <col min="2" max="2" width="34.21875" customWidth="1"/>
     <col min="3" max="3" width="46.6640625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -485,23 +485,20 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
@@ -517,10 +514,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -531,10 +531,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -542,10 +545,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">

--- a/ScrumBoard.xlsx
+++ b/ScrumBoard.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,9 +485,6 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
@@ -500,21 +497,21 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -541,7 +538,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
@@ -557,6 +554,9 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/ScrumBoard.xlsx
+++ b/ScrumBoard.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>backlog</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Wie</t>
-  </si>
-  <si>
-    <t>,,,</t>
   </si>
   <si>
     <t>Done</t>
@@ -452,7 +449,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,7 +475,7 @@
         <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -521,9 +518,6 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>

--- a/ScrumBoard.xlsx
+++ b/ScrumBoard.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andy.boets\Documents\GitHub\FlexiDatingProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\FlexiDatingProject\FlexiDatingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +552,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">

--- a/ScrumBoard.xlsx
+++ b/ScrumBoard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\FlexiDatingProject\FlexiDatingProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andy.boets\Documents\GitHub\FlexiDatingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,6 +485,9 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
@@ -524,9 +527,6 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -552,11 +552,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
       <c r="E7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/ScrumBoard.xlsx
+++ b/ScrumBoard.xlsx
@@ -23,8 +23,81 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Andy Boets</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">enkel minimum of maximum toevoegen 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Andy Boets:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+validatie op leeftijd toevoegen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Andy Boets:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+foto toevoegen van sterrenbeeld op profielpagina</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>backlog</t>
   </si>
@@ -35,15 +108,6 @@
     <t>busy</t>
   </si>
   <si>
-    <t>favorietenlijst</t>
-  </si>
-  <si>
-    <t>html gebruikerspagina 11</t>
-  </si>
-  <si>
-    <t>javascript init gebruikerspagina</t>
-  </si>
-  <si>
     <t>javascript login (6) 4u</t>
   </si>
   <si>
@@ -95,17 +159,35 @@
     <t>Wie</t>
   </si>
   <si>
-    <t>,,,</t>
-  </si>
-  <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>javascript favorietenlijst</t>
+  </si>
+  <si>
+    <t>javascript i feel lucky knop</t>
+  </si>
+  <si>
+    <t>javascript lovecoins, 3 toevoegen , lovecoins verhogen , profielpagina uitbreiden met lovecoins</t>
+  </si>
+  <si>
+    <t>javascript gebruikersprofielpagina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javascript gebruikersprofielpagina, gegevens wijzigen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">js uitschrijven voor verwijderen van account </t>
+  </si>
+  <si>
+    <t>javascript foto uploaden van mezelf  via webcam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +203,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +248,21 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -159,18 +290,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,16 +588,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
     <col min="2" max="2" width="34.21875" customWidth="1"/>
     <col min="3" max="3" width="46.6640625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
@@ -475,94 +615,100 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>11</v>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ScrumBoard.xlsx
+++ b/ScrumBoard.xlsx
@@ -29,7 +29,7 @@
     <author>Andy Boets</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -39,12 +39,22 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">enkel minimum of maximum toevoegen 
+          <t xml:space="preserve">Foto Tonen
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +78,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">enkel minimum of maximum toevoegen 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -589,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,8 +650,8 @@
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -636,12 +661,6 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
@@ -653,8 +672,8 @@
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -664,7 +683,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
@@ -678,6 +697,9 @@
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
@@ -686,24 +708,33 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="3" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/ScrumBoard.xlsx
+++ b/ScrumBoard.xlsx
@@ -54,30 +54,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Andy Boets:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-validatie op leeftijd toevoegen</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
@@ -114,6 +90,30 @@
           </rPr>
           <t xml:space="preserve">
 foto toevoegen van sterrenbeeld op profielpagina</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Andy Boets:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+validatie op leeftijd toevoegen</t>
         </r>
       </text>
     </comment>
@@ -614,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,9 +697,6 @@
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
@@ -735,6 +732,11 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E12" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/ScrumBoard.xlsx
+++ b/ScrumBoard.xlsx
@@ -617,14 +617,14 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49.6640625" customWidth="1"/>
     <col min="2" max="2" width="34.21875" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" customWidth="1"/>
+    <col min="3" max="3" width="58" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="45.109375" customWidth="1"/>
   </cols>

--- a/ScrumBoard.xlsx
+++ b/ScrumBoard.xlsx
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>backlog</t>
   </si>
@@ -617,7 +617,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,6 +697,9 @@
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>

--- a/ScrumBoard.xlsx
+++ b/ScrumBoard.xlsx
@@ -29,31 +29,6 @@
     <author>Andy Boets</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Foto Tonen
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
@@ -114,6 +89,31 @@
           </rPr>
           <t xml:space="preserve">
 validatie op leeftijd toevoegen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Foto Tonen
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -614,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,9 +650,6 @@
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -672,9 +669,6 @@
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
@@ -683,9 +677,6 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
@@ -694,12 +685,6 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
@@ -740,6 +725,31 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E13" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/ScrumBoard.xlsx
+++ b/ScrumBoard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andy.boets\Documents\GitHub\FlexiDatingProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dennie.aertsens\Documents\GitHub\FlexiDatingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -614,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -666,9 +666,6 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
@@ -750,6 +747,11 @@
     <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
